--- a/output/fit_clients/fit_round_417.xlsx
+++ b/output/fit_clients/fit_round_417.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2469728777.43353</v>
+        <v>2051542643.210525</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07670312883564553</v>
+        <v>0.0913929073886051</v>
       </c>
       <c r="G2" t="n">
-        <v>0.032435431495326</v>
+        <v>0.0422203778914205</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1234864447.521136</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2178990954.46094</v>
+        <v>2216676936.030457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1338149539132421</v>
+        <v>0.1231268835896219</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03597605523482936</v>
+        <v>0.0490290376670699</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1089495545.02098</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3968223349.87202</v>
+        <v>4195773949.825849</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1611151338109603</v>
+        <v>0.1401170331250135</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0357842230156522</v>
+        <v>0.03731882096746825</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1984111686.875792</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3325502560.130397</v>
+        <v>3753649330.396633</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09197357879851759</v>
+        <v>0.07723437943459309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03735806853706519</v>
+        <v>0.04222015595108518</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>154</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1662751328.419695</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2027386700.530019</v>
+        <v>1962560734.056693</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1275142617959656</v>
+        <v>0.1489055545548519</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04769348333020766</v>
+        <v>0.04300729154834099</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>78</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1013693376.9101</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2828682403.614915</v>
+        <v>2715192248.200004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07329907532147364</v>
+        <v>0.07973235007075388</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04885239524291383</v>
+        <v>0.03677245947415474</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>131</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1414341183.178822</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3805219027.085004</v>
+        <v>3514498336.012226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2042509772293681</v>
+        <v>0.1946240257334922</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03128381651680801</v>
+        <v>0.02415753451608808</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>133</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1902609653.391472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1946122257.985648</v>
+        <v>1600145692.889632</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1448722906439289</v>
+        <v>0.129797438762773</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03281642234911823</v>
+        <v>0.02905305135822181</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>973061163.0939925</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4580875870.892101</v>
+        <v>5443101893.499064</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1332704277037016</v>
+        <v>0.2010038728761611</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04678958450027829</v>
+        <v>0.03735069382380782</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>175</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2290438002.360233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2636423081.049645</v>
+        <v>3720312744.635448</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1204087463046939</v>
+        <v>0.1510976403618366</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04354568007523168</v>
+        <v>0.04963500693740493</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>172</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1318211458.178112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3294623367.085608</v>
+        <v>3041569204.073227</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1479843549257782</v>
+        <v>0.1523902066423214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03594159608617029</v>
+        <v>0.05212889484188723</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>141</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1647311728.553849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3586204906.778757</v>
+        <v>3283626772.749213</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09910841007146548</v>
+        <v>0.06420397661894979</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02443012717538104</v>
+        <v>0.02390618007978907</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>141</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1793102529.352545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3800568034.203523</v>
+        <v>3759235269.130748</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1179056062630274</v>
+        <v>0.1173249404721645</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0285865605097961</v>
+        <v>0.0306797699065583</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1900283993.582167</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1476172417.41649</v>
+        <v>1665803051.464442</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08017545522665913</v>
+        <v>0.07814002410177261</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03235538459874165</v>
+        <v>0.03379065569067158</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>738086288.8240033</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1836278590.593787</v>
+        <v>2455399650.656644</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07016488567870745</v>
+        <v>0.08201224846439037</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03164561354275739</v>
+        <v>0.03218185018292782</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>85</v>
-      </c>
-      <c r="J16" t="n">
-        <v>918139385.4274353</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5146044996.762203</v>
+        <v>4256022757.90859</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1379034300748198</v>
+        <v>0.1163017978413879</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04538187965897789</v>
+        <v>0.04511052010473992</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>122</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2573022476.370152</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2848800233.947422</v>
+        <v>3189097012.047172</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1322421320650689</v>
+        <v>0.1492582008249378</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03353885514924869</v>
+        <v>0.03343525794257247</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>137</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1424400158.200217</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1048710408.689778</v>
+        <v>1112031127.709443</v>
       </c>
       <c r="F19" t="n">
-        <v>0.129898015686951</v>
+        <v>0.1392011956407918</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0211066704032655</v>
+        <v>0.02453189878320712</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>524355245.4894957</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1855302081.096144</v>
+        <v>2078662757.705612</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1164014787546866</v>
+        <v>0.13457456976114</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02009964446275566</v>
+        <v>0.02195237517524881</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>927651082.330115</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2166558848.925977</v>
+        <v>2566848874.761727</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07469809275013141</v>
+        <v>0.1007857514816427</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03842404785748558</v>
+        <v>0.04199539026074029</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1083279444.476612</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3240411021.190803</v>
+        <v>2753349292.657344</v>
       </c>
       <c r="F22" t="n">
-        <v>0.100547415894883</v>
+        <v>0.1343546475417476</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03606866482453004</v>
+        <v>0.04565116242350987</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1620205557.743031</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1487291768.205</v>
+        <v>1232911271.599754</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1457460760538632</v>
+        <v>0.1644523458627882</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05345913851683723</v>
+        <v>0.03567250267800815</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>743645872.2204239</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2963528643.010444</v>
+        <v>2833400759.018305</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1271320299740964</v>
+        <v>0.1492077121149439</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02419338217876286</v>
+        <v>0.03533333379814269</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>122</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1481764359.218472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1225083218.411912</v>
+        <v>1152866701.436827</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1121970555163556</v>
+        <v>0.09237965544732035</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01894961248452636</v>
+        <v>0.02232131514257235</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>612541621.4117243</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1306404146.825843</v>
+        <v>1425186932.262661</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09604631455604323</v>
+        <v>0.07737941652971854</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03033632889239755</v>
+        <v>0.02979043171503832</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>653202120.4897207</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3540255979.196896</v>
+        <v>4629567908.11548</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1471180675919354</v>
+        <v>0.142541567145329</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01774963090487917</v>
+        <v>0.01689476022522939</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1770128022.602633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2428208925.799114</v>
+        <v>3489085026.903606</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1283412743428983</v>
+        <v>0.1050530704769893</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04168949269935514</v>
+        <v>0.03349732176866355</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1214104424.48655</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5488898285.283668</v>
+        <v>5794119331.269056</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1008409583331793</v>
+        <v>0.1064913991766642</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02843911792007933</v>
+        <v>0.03133990406088579</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>184</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2744449056.393506</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2160351135.059184</v>
+        <v>1830753912.297235</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1113835774817882</v>
+        <v>0.1074532711223219</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03138742993443142</v>
+        <v>0.03947469998007335</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1080175623.29872</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1291703319.186289</v>
+        <v>1492996801.847691</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1098012306806072</v>
+        <v>0.07246164444594037</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04061480729768653</v>
+        <v>0.04170907969737799</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>645851589.4792352</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1263019830.751604</v>
+        <v>1298463551.576586</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07499100610577644</v>
+        <v>0.07291513898090692</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03459392927184949</v>
+        <v>0.02877460572027885</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>631509934.6667311</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3116362257.203637</v>
+        <v>2455069026.963789</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1688432515373563</v>
+        <v>0.1542993905566361</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03857704760801194</v>
+        <v>0.04495068618665296</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>125</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1558181114.358268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1562551413.195415</v>
+        <v>1050118605.19253</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1024812943424073</v>
+        <v>0.09799972893741375</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02256576269501762</v>
+        <v>0.01950622432562974</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>781275652.1960416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>907691779.8689084</v>
+        <v>847429217.5371073</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09190400015201394</v>
+        <v>0.07491719510179957</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02956334632008979</v>
+        <v>0.03408310223695386</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>453845928.7580017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2897926321.406872</v>
+        <v>2640551741.731664</v>
       </c>
       <c r="F36" t="n">
-        <v>0.126848695345939</v>
+        <v>0.1489700802817055</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02351795703348784</v>
+        <v>0.01991500199550225</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>105</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1448963150.823793</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2184226485.145439</v>
+        <v>2833824626.522403</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09177117431014285</v>
+        <v>0.1091589558521989</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04267360584008099</v>
+        <v>0.02872308360262699</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>113</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1092113295.246279</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1972032731.60433</v>
+        <v>2166332978.370539</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09377886897802344</v>
+        <v>0.1066396720543466</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02621385519899908</v>
+        <v>0.02980080711039557</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>986016348.3938029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1786533835.542225</v>
+        <v>2102450944.07295</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1546053395796695</v>
+        <v>0.1687361202340536</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02869732272687145</v>
+        <v>0.0298917127297622</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>893266944.7340344</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1816314548.042864</v>
+        <v>1159697819.080822</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1558249878846191</v>
+        <v>0.1589490244568185</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04173330156884619</v>
+        <v>0.05680908355581982</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>908157161.0571872</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2262534198.630237</v>
+        <v>2893716269.719775</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1134773628786779</v>
+        <v>0.132635402765996</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02981282528434465</v>
+        <v>0.04242288701661846</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1131267147.836129</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3191490256.539757</v>
+        <v>3386379956.793123</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1235034080512193</v>
+        <v>0.1250936564705805</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03535001363486887</v>
+        <v>0.04535027712238234</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1595745101.911455</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2757223316.601696</v>
+        <v>3024504064.318244</v>
       </c>
       <c r="F43" t="n">
-        <v>0.191062961285758</v>
+        <v>0.1876287627088562</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02559041522253792</v>
+        <v>0.01822624015909268</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>144</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1378611681.117647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2277099264.408969</v>
+        <v>1440817604.516824</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08281912463612481</v>
+        <v>0.0869361767885789</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02924115766609907</v>
+        <v>0.0304326321003405</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1138549793.84149</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1851874701.111869</v>
+        <v>1693635044.355077</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1215954970840747</v>
+        <v>0.1624530893883581</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04372271118241194</v>
+        <v>0.04339955778857832</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>925937326.5504484</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5586171146.02096</v>
+        <v>3613091424.762573</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1643464955525482</v>
+        <v>0.1130048246778356</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04793415020876218</v>
+        <v>0.05397309668530234</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>148</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2793085633.362929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5080860292.951305</v>
+        <v>4536930812.989897</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1973466512261461</v>
+        <v>0.1306381355457314</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04265272904851859</v>
+        <v>0.05936785432869306</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>112</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2540430206.87991</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3337967435.374705</v>
+        <v>3140847021.995977</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0915369339023732</v>
+        <v>0.1104298077154347</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02423207519881808</v>
+        <v>0.0304050288310848</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1668983790.58207</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1646398723.697608</v>
+        <v>1955970707.074418</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1528044884167068</v>
+        <v>0.1195419473912137</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04248629820839139</v>
+        <v>0.04451068511089516</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>823199371.1391786</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3352744193.953882</v>
+        <v>3679900671.691049</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1362641816308836</v>
+        <v>0.1562401927946465</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04051496017408568</v>
+        <v>0.05142553279488091</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>142</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1676372131.714903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1192912321.946227</v>
+        <v>1362678304.48423</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1419859493530493</v>
+        <v>0.1350721815434759</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04510325378294991</v>
+        <v>0.05099620558926667</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>596456213.6969476</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5263677523.605195</v>
+        <v>4137549380.206716</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0864127688245603</v>
+        <v>0.08991091916681344</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05839670735198878</v>
+        <v>0.04406421941823238</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>171</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2631838743.928078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3078581365.81948</v>
+        <v>3235436466.835228</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2010354690205406</v>
+        <v>0.1928957831475043</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03414425287844446</v>
+        <v>0.03210739388374893</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1539290709.902255</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4374608515.645399</v>
+        <v>3007631066.377566</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1643291829335111</v>
+        <v>0.1623367193706781</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04374416489495123</v>
+        <v>0.04847342796126284</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2187304351.340865</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3366370080.730343</v>
+        <v>4157064941.70516</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1600611760412242</v>
+        <v>0.147063082399974</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01965833968829934</v>
+        <v>0.02311042201916696</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1683184987.327818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1391492175.238122</v>
+        <v>1606995808.293003</v>
       </c>
       <c r="F56" t="n">
-        <v>0.163949467821157</v>
+        <v>0.1034270702777091</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03976801018611362</v>
+        <v>0.04764316836352881</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>695746145.9682437</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2942539938.413776</v>
+        <v>4106844127.525122</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1695851700035435</v>
+        <v>0.1151944102288039</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01822893310039042</v>
+        <v>0.02306832282759417</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>133</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1471269968.80406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1576006323.192504</v>
+        <v>1513652561.07784</v>
       </c>
       <c r="F58" t="n">
-        <v>0.136613613381693</v>
+        <v>0.1841622338555579</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03222258863203513</v>
+        <v>0.03880402074972709</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>788003185.8131833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3969256522.442275</v>
+        <v>5311028842.73703</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1284271106327972</v>
+        <v>0.09240132387560437</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03538373857297195</v>
+        <v>0.03650838545614603</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1984628238.676582</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2636467900.624218</v>
+        <v>2606884214.678303</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1859692824198846</v>
+        <v>0.1843050561940642</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02701461758822213</v>
+        <v>0.02053325652860253</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>128</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1318233982.546709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2402446124.346148</v>
+        <v>2294938514.363204</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1693380171541116</v>
+        <v>0.154093109743611</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02743643474545964</v>
+        <v>0.02310275283828594</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>143</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1201223099.00866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1370531435.077855</v>
+        <v>1653639887.910538</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1475040765684577</v>
+        <v>0.1499781610841293</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04703585706949915</v>
+        <v>0.03116111247340914</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>685265681.1882765</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5196975100.030245</v>
+        <v>4163802303.795256</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09230305593168772</v>
+        <v>0.07138740374485204</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04526033761438212</v>
+        <v>0.04567782925349992</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2598487558.985415</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4775030785.298893</v>
+        <v>3404106696.413146</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1388245167408949</v>
+        <v>0.1747812807868873</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02452897181449021</v>
+        <v>0.03104006191515069</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>130</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2387515483.041486</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5853563124.715997</v>
+        <v>4985864976.241226</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1410181560501509</v>
+        <v>0.1403943880446011</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02752148053840177</v>
+        <v>0.02889541009089115</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>149</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2926781470.343056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4555272419.867884</v>
+        <v>5034508001.716688</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1503687877448017</v>
+        <v>0.1237144922086888</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04996292077446651</v>
+        <v>0.03791326470547406</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2277636213.252924</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2844896823.472446</v>
+        <v>3036477131.413152</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07087137787907903</v>
+        <v>0.1020531194543811</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04881943328266967</v>
+        <v>0.04577787209018216</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>132</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1422448443.169553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5186163167.369833</v>
+        <v>4328177870.236146</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1383957677657681</v>
+        <v>0.1372709386914225</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03516966108754347</v>
+        <v>0.05055629214933233</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2593081651.367228</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1897458558.51467</v>
+        <v>2039777135.078699</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1250552381050239</v>
+        <v>0.1653881655110244</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05355490532574981</v>
+        <v>0.03783424801358934</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>948729270.9492915</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3242876858.708639</v>
+        <v>2276218081.837197</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08714513040604076</v>
+        <v>0.08683109473032685</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03019328778786329</v>
+        <v>0.04513058242247425</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>119</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1621438422.144392</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4481724499.596564</v>
+        <v>3466992047.240455</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1742892334750691</v>
+        <v>0.1589258278742691</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03261708558077806</v>
+        <v>0.02107960204272983</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>152</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2240862316.803609</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1399081678.322392</v>
+        <v>2153250432.932448</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08492413188628797</v>
+        <v>0.09817162970858155</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03690355822439265</v>
+        <v>0.04242542567493929</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>699540882.4545372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3023896032.209501</v>
+        <v>2163573615.009662</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08617773102678891</v>
+        <v>0.09994012316774854</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03899586791041435</v>
+        <v>0.05001909014469889</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>157</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1511948009.910595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2533313490.382349</v>
+        <v>3037579831.646067</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1220212202816012</v>
+        <v>0.1243850868754202</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02344581197358922</v>
+        <v>0.03153011745502388</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>142</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1266656850.965142</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1795818081.415116</v>
+        <v>1615037649.542876</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1566260817047055</v>
+        <v>0.1015147300312361</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0341646476852746</v>
+        <v>0.02859099397696233</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>897909023.9992385</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4200923141.997425</v>
+        <v>4701339712.239273</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1232310403660457</v>
+        <v>0.1047489347930792</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02758576219964189</v>
+        <v>0.02701683509765973</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>92</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2100461564.13035</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1437162593.471796</v>
+        <v>1571223344.235677</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1153519884682455</v>
+        <v>0.1743779365450555</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02113487432792772</v>
+        <v>0.02353338225516359</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>718581275.130924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2946622099.152658</v>
+        <v>3428706056.562397</v>
       </c>
       <c r="F78" t="n">
-        <v>0.115796642080451</v>
+        <v>0.1235341761753311</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05303462932237768</v>
+        <v>0.03705304085027584</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>145</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1473311090.715973</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1166742986.104315</v>
+        <v>1377004188.903513</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1672590608065665</v>
+        <v>0.1142337969401587</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02877134795480873</v>
+        <v>0.03678655525603557</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>583371469.0016495</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5420175918.738492</v>
+        <v>5607586023.490991</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1005797379948622</v>
+        <v>0.1019883743381353</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03064157750704838</v>
+        <v>0.03778333194720284</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2710088029.511282</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3915069254.799665</v>
+        <v>5079117954.104486</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1152345360851456</v>
+        <v>0.1344922955525993</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02527699217976882</v>
+        <v>0.03088516227907032</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1957534587.473293</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5526971302.091735</v>
+        <v>4796565491.779416</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1689940044936691</v>
+        <v>0.1451712931626523</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01967581665045419</v>
+        <v>0.01978716567069138</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>146</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2763485605.586503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2292547107.07809</v>
+        <v>2369297050.344635</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1471074342890177</v>
+        <v>0.1550334238762206</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04466330790924895</v>
+        <v>0.03178312486334334</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1146273575.295754</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2442593825.656375</v>
+        <v>2502575895.703345</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09506460327445866</v>
+        <v>0.08221815174934313</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03680568332648804</v>
+        <v>0.05165752922766489</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1221296853.021067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2340809124.043948</v>
+        <v>3046617946.210427</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1770178846269808</v>
+        <v>0.1275505906326787</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04284220000733437</v>
+        <v>0.03621666655260112</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>157</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1170404549.441246</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1970527954.225483</v>
+        <v>1964518010.607199</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1638504130169946</v>
+        <v>0.1159266632366563</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0260428386612144</v>
+        <v>0.0180374543511159</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>985264000.6624517</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1019159502.130745</v>
+        <v>975086475.8050611</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1391627153663442</v>
+        <v>0.1715472993416761</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02905475120075735</v>
+        <v>0.04318101940626624</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>509579760.3101874</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3409078072.533616</v>
+        <v>3051580505.673006</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1577837843339404</v>
+        <v>0.175146387591078</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03895797374181208</v>
+        <v>0.03554067028576699</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>165</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1704539107.159574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2255464842.696848</v>
+        <v>3408472473.362523</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1115070913168282</v>
+        <v>0.1391435919444972</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0252652855402836</v>
+        <v>0.0398387980933033</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>140</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1127732514.065959</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1894283440.992443</v>
+        <v>1359181032.310554</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1053934375301155</v>
+        <v>0.09495134457104654</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04315543030800178</v>
+        <v>0.05369334346223686</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>947141771.3906367</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1822094995.763867</v>
+        <v>1713730907.613095</v>
       </c>
       <c r="F91" t="n">
-        <v>0.129064699214067</v>
+        <v>0.1612114809437359</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05044963841253212</v>
+        <v>0.05205509238251248</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>911047493.8632252</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2149160304.776927</v>
+        <v>2503797225.473639</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07355329155105486</v>
+        <v>0.1093655486283865</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04085329912154009</v>
+        <v>0.04744077137004884</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1074580109.839389</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3112209106.279879</v>
+        <v>3664578791.865704</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1043544769188603</v>
+        <v>0.1206589639793624</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0536608318222765</v>
+        <v>0.05297158862096409</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>123</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1556104611.161867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1705655383.00756</v>
+        <v>2339123128.862121</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1684813777784393</v>
+        <v>0.1390545376535872</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02837765060539564</v>
+        <v>0.04156576048030371</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>852827651.6197219</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2052720440.428782</v>
+        <v>3230640917.016359</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1362621435107018</v>
+        <v>0.1319594136713853</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03601432047484304</v>
+        <v>0.04867853945637925</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1026360288.829674</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2236789691.360764</v>
+        <v>2407562542.336173</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1079008980549019</v>
+        <v>0.09989905640997257</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04302147599050146</v>
+        <v>0.03676408441762814</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1118394807.401155</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4848067586.454138</v>
+        <v>4193029009.307523</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1125767680118779</v>
+        <v>0.1423102914586392</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02455317250158481</v>
+        <v>0.02371729619438383</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>134</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2424033917.821409</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2909370315.834317</v>
+        <v>2988229463.101673</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08883331559349478</v>
+        <v>0.1107201111661395</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02403675511556687</v>
+        <v>0.02597481824962803</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1454685136.46562</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2666377634.874149</v>
+        <v>2456623105.96714</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1036481519768066</v>
+        <v>0.1042471093017875</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0255196561758121</v>
+        <v>0.02362280204961527</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>130</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1333188779.28143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3991220361.316175</v>
+        <v>3216371776.850738</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1342701541136873</v>
+        <v>0.1555695713839577</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02059205445293043</v>
+        <v>0.01998020138737244</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1995610250.634433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2943940276.773201</v>
+        <v>3272038731.095949</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2011867188352489</v>
+        <v>0.2158599349941387</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05608837272697703</v>
+        <v>0.04024665346909659</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>168</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1471970220.055982</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_417.xlsx
+++ b/output/fit_clients/fit_round_417.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2051542643.210525</v>
+        <v>2211110880.109479</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0913929073886051</v>
+        <v>0.0942654678253574</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0422203778914205</v>
+        <v>0.02963775226007576</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2216676936.030457</v>
+        <v>2288144448.422987</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1231268835896219</v>
+        <v>0.1792276050497093</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0490290376670699</v>
+        <v>0.03659572380081124</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4195773949.825849</v>
+        <v>4953681886.317354</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1401170331250135</v>
+        <v>0.1480218965957621</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03731882096746825</v>
+        <v>0.0249359618922202</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3753649330.396633</v>
+        <v>3513303147.838851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07723437943459309</v>
+        <v>0.08491814527175934</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04222015595108518</v>
+        <v>0.05059636547325636</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1962560734.056693</v>
+        <v>2073607419.922787</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1489055545548519</v>
+        <v>0.1117138370451171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04300729154834099</v>
+        <v>0.04579486239556421</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2715192248.200004</v>
+        <v>2642054254.010546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07973235007075388</v>
+        <v>0.06396453625759206</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03677245947415474</v>
+        <v>0.0451823425957355</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3514498336.012226</v>
+        <v>2447432095.79904</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1946240257334922</v>
+        <v>0.1761049501332225</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02415753451608808</v>
+        <v>0.02913664978234749</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1600145692.889632</v>
+        <v>2235068556.866935</v>
       </c>
       <c r="F9" t="n">
-        <v>0.129797438762773</v>
+        <v>0.1293527576291571</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02905305135822181</v>
+        <v>0.0338738248537902</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5443101893.499064</v>
+        <v>4628193771.867324</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2010038728761611</v>
+        <v>0.2033885530012532</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03735069382380782</v>
+        <v>0.04365485481310161</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3720312744.635448</v>
+        <v>4083199941.317834</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1510976403618366</v>
+        <v>0.1662452376421384</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04963500693740493</v>
+        <v>0.03091840996564614</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3041569204.073227</v>
+        <v>2402605010.619069</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1523902066423214</v>
+        <v>0.1360364364008569</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05212889484188723</v>
+        <v>0.0343108022463812</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3283626772.749213</v>
+        <v>3564254790.779034</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06420397661894979</v>
+        <v>0.09281663742292458</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02390618007978907</v>
+        <v>0.02665575369167221</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3759235269.130748</v>
+        <v>2562564115.524251</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1173249404721645</v>
+        <v>0.118092255676821</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0306797699065583</v>
+        <v>0.0385475410388767</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1665803051.464442</v>
+        <v>1305800778.070065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07814002410177261</v>
+        <v>0.1080280401980264</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03379065569067158</v>
+        <v>0.0322924332111336</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2455399650.656644</v>
+        <v>2675423321.738127</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08201224846439037</v>
+        <v>0.07824608049421557</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03218185018292782</v>
+        <v>0.03978768913304119</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4256022757.90859</v>
+        <v>3301038042.573606</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1163017978413879</v>
+        <v>0.1694575155739037</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04511052010473992</v>
+        <v>0.03843532471331864</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3189097012.047172</v>
+        <v>3852315679.890578</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1492582008249378</v>
+        <v>0.1383117530325332</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03343525794257247</v>
+        <v>0.03061035977367654</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1112031127.709443</v>
+        <v>1355901085.003237</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1392011956407918</v>
+        <v>0.1345160101841321</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02453189878320712</v>
+        <v>0.02743579762475682</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2078662757.705612</v>
+        <v>1764687441.454967</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13457456976114</v>
+        <v>0.1460557991404453</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02195237517524881</v>
+        <v>0.02326776043210447</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2566848874.761727</v>
+        <v>1786969304.947479</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1007857514816427</v>
+        <v>0.08025555733982623</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04199539026074029</v>
+        <v>0.03343857377054625</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2753349292.657344</v>
+        <v>2609598197.398706</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1343546475417476</v>
+        <v>0.1276350724086029</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04565116242350987</v>
+        <v>0.05185543454472884</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1232911271.599754</v>
+        <v>992112536.6805596</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1644523458627882</v>
+        <v>0.1633668023490777</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03567250267800815</v>
+        <v>0.03858486871950944</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2833400759.018305</v>
+        <v>3357509128.320048</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1492077121149439</v>
+        <v>0.1252897307120756</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03533333379814269</v>
+        <v>0.02938675346335415</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1152866701.436827</v>
+        <v>1454367333.44529</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09237965544732035</v>
+        <v>0.08763464817873365</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02232131514257235</v>
+        <v>0.02809664799594868</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1425186932.262661</v>
+        <v>1396703630.856397</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07737941652971854</v>
+        <v>0.0809568524752826</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02979043171503832</v>
+        <v>0.02954170328539518</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4629567908.11548</v>
+        <v>4373428332.710619</v>
       </c>
       <c r="F27" t="n">
-        <v>0.142541567145329</v>
+        <v>0.1367626934679261</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01689476022522939</v>
+        <v>0.0265857753066488</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3489085026.903606</v>
+        <v>3521984082.649656</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1050530704769893</v>
+        <v>0.1428431410796107</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03349732176866355</v>
+        <v>0.03763151669848599</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5794119331.269056</v>
+        <v>3845396454.718536</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1064913991766642</v>
+        <v>0.1115973438856109</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03133990406088579</v>
+        <v>0.03261450021665532</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1830753912.297235</v>
+        <v>2129221679.1147</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1074532711223219</v>
+        <v>0.09786513420087982</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03947469998007335</v>
+        <v>0.02846342211617148</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1492996801.847691</v>
+        <v>908000097.2734896</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07246164444594037</v>
+        <v>0.08053437107319662</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04170907969737799</v>
+        <v>0.03933090041277338</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1298463551.576586</v>
+        <v>1150058228.536017</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07291513898090692</v>
+        <v>0.1085411842351227</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02877460572027885</v>
+        <v>0.02709532748811213</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2455069026.963789</v>
+        <v>2905635596.011684</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1542993905566361</v>
+        <v>0.1279405034207339</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04495068618665296</v>
+        <v>0.05108453132831004</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1050118605.19253</v>
+        <v>1173319675.481338</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09799972893741375</v>
+        <v>0.09307133003582826</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01950622432562974</v>
+        <v>0.02143097655954989</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>847429217.5371073</v>
+        <v>1200899211.872671</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07491719510179957</v>
+        <v>0.117335461164356</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03408310223695386</v>
+        <v>0.04093666401661077</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2640551741.731664</v>
+        <v>2781434173.660913</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1489700802817055</v>
+        <v>0.1104313397588579</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01991500199550225</v>
+        <v>0.02675377392114737</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2833824626.522403</v>
+        <v>1869864574.291966</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1091589558521989</v>
+        <v>0.07929654330695168</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02872308360262699</v>
+        <v>0.02854391900706943</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2166332978.370539</v>
+        <v>1646242360.705325</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1066396720543466</v>
+        <v>0.09763824204963596</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02980080711039557</v>
+        <v>0.02537013745926893</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2102450944.07295</v>
+        <v>1858859342.136358</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1687361202340536</v>
+        <v>0.1600238488282266</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0298917127297622</v>
+        <v>0.02073763765043336</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1159697819.080822</v>
+        <v>1379137554.158638</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1589490244568185</v>
+        <v>0.1193735642539887</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05680908355581982</v>
+        <v>0.03713709560013546</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2893716269.719775</v>
+        <v>2791028025.607211</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132635402765996</v>
+        <v>0.1587280747338736</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04242288701661846</v>
+        <v>0.04409039334980103</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3386379956.793123</v>
+        <v>3942964327.515162</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1250936564705805</v>
+        <v>0.1030993346275004</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04535027712238234</v>
+        <v>0.03441171890330993</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3024504064.318244</v>
+        <v>2722214033.903961</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1876287627088562</v>
+        <v>0.1853406234642953</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01822624015909268</v>
+        <v>0.01625182426860277</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1440817604.516824</v>
+        <v>1748526462.473712</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0869361767885789</v>
+        <v>0.09871593251050086</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0304326321003405</v>
+        <v>0.02794703324807617</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1693635044.355077</v>
+        <v>2066924104.49367</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1624530893883581</v>
+        <v>0.1917922144256242</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04339955778857832</v>
+        <v>0.04096022522689542</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3613091424.762573</v>
+        <v>5422814509.397879</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1130048246778356</v>
+        <v>0.1596742899376923</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05397309668530234</v>
+        <v>0.05039190271425718</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4536930812.989897</v>
+        <v>3689743738.79008</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1306381355457314</v>
+        <v>0.1278487128961761</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05936785432869306</v>
+        <v>0.04607821394019553</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3140847021.995977</v>
+        <v>4338494904.309606</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1104298077154347</v>
+        <v>0.08834129610618427</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0304050288310848</v>
+        <v>0.02658088133271801</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1955970707.074418</v>
+        <v>1276798147.507267</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1195419473912137</v>
+        <v>0.177096751841592</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04451068511089516</v>
+        <v>0.03431777290341367</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3679900671.691049</v>
+        <v>2647167496.21591</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1562401927946465</v>
+        <v>0.151687661371035</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05142553279488091</v>
+        <v>0.03724855649429116</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1362678304.48423</v>
+        <v>1077395775.095833</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1350721815434759</v>
+        <v>0.1198257145245618</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05099620558926667</v>
+        <v>0.04235738361090592</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4137549380.206716</v>
+        <v>3189240771.77437</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08991091916681344</v>
+        <v>0.1062655322352197</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04406421941823238</v>
+        <v>0.05861864091124574</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3235436466.835228</v>
+        <v>3033441034.238372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1928957831475043</v>
+        <v>0.2003927643672711</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03210739388374893</v>
+        <v>0.02968162359358484</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3007631066.377566</v>
+        <v>3971842678.470589</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1623367193706781</v>
+        <v>0.1237261978982595</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04847342796126284</v>
+        <v>0.03794357184862117</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4157064941.70516</v>
+        <v>4230484779.661443</v>
       </c>
       <c r="F55" t="n">
-        <v>0.147063082399974</v>
+        <v>0.2205500299749407</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02311042201916696</v>
+        <v>0.02603557944345173</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1606995808.293003</v>
+        <v>1756875505.193204</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1034270702777091</v>
+        <v>0.1280107537856435</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04764316836352881</v>
+        <v>0.04080395160281162</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4106844127.525122</v>
+        <v>3552715645.189682</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1151944102288039</v>
+        <v>0.1649485664604086</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02306832282759417</v>
+        <v>0.02301452695670306</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1513652561.07784</v>
+        <v>1587233748.76893</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1841622338555579</v>
+        <v>0.1529897063233605</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03880402074972709</v>
+        <v>0.02623898996657736</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5311028842.73703</v>
+        <v>3843302494.437919</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09240132387560437</v>
+        <v>0.1279177655677807</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03650838545614603</v>
+        <v>0.0461812334280339</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2606884214.678303</v>
+        <v>2497393218.572266</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1843050561940642</v>
+        <v>0.199261127990051</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02053325652860253</v>
+        <v>0.02857280582641812</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2294938514.363204</v>
+        <v>2895062831.409918</v>
       </c>
       <c r="F61" t="n">
-        <v>0.154093109743611</v>
+        <v>0.1558314708322881</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02310275283828594</v>
+        <v>0.03286258875532606</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1653639887.910538</v>
+        <v>1850206003.304534</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1499781610841293</v>
+        <v>0.154427520565525</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03116111247340914</v>
+        <v>0.04445405107180121</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4163802303.795256</v>
+        <v>5114078302.364638</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07138740374485204</v>
+        <v>0.07894181670084374</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04567782925349992</v>
+        <v>0.03785742685704069</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3404106696.413146</v>
+        <v>5538582804.55779</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1747812807868873</v>
+        <v>0.1624879837151216</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03104006191515069</v>
+        <v>0.02255688710877157</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4985864976.241226</v>
+        <v>5078287189.405387</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1403943880446011</v>
+        <v>0.111944914341624</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02889541009089115</v>
+        <v>0.02419175302469436</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5034508001.716688</v>
+        <v>5174875432.948208</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1237144922086888</v>
+        <v>0.1541891959620317</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03791326470547406</v>
+        <v>0.04127963648238894</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3036477131.413152</v>
+        <v>3158053276.374438</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1020531194543811</v>
+        <v>0.09704417067087014</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04577787209018216</v>
+        <v>0.0422397614637802</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4328177870.236146</v>
+        <v>4468983849.248143</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1372709386914225</v>
+        <v>0.131815273759557</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05055629214933233</v>
+        <v>0.04667217186935793</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2039777135.078699</v>
+        <v>2265477116.280857</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1653881655110244</v>
+        <v>0.1515853444209465</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03783424801358934</v>
+        <v>0.03647657207631232</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2276218081.837197</v>
+        <v>2391499879.831398</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08683109473032685</v>
+        <v>0.06745631016912723</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04513058242247425</v>
+        <v>0.03656464387641794</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3466992047.240455</v>
+        <v>3880970702.924857</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1589258278742691</v>
+        <v>0.1477754438631594</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02107960204272983</v>
+        <v>0.02682084582865756</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2153250432.932448</v>
+        <v>1987272962.749699</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09817162970858155</v>
+        <v>0.07050270618387285</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04242542567493929</v>
+        <v>0.0393978871519475</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2163573615.009662</v>
+        <v>3043380432.62094</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09994012316774854</v>
+        <v>0.1092208038335991</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05001909014469889</v>
+        <v>0.04961593196139853</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3037579831.646067</v>
+        <v>3949901909.504902</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1243850868754202</v>
+        <v>0.1635325146248645</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03153011745502388</v>
+        <v>0.02234948592035564</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1615037649.542876</v>
+        <v>1938389804.0693</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1015147300312361</v>
+        <v>0.1066158252446515</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02859099397696233</v>
+        <v>0.03343575242129711</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4701339712.239273</v>
+        <v>5136673856.161815</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1047489347930792</v>
+        <v>0.0843079483597825</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02701683509765973</v>
+        <v>0.03219219684469584</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1571223344.235677</v>
+        <v>1506227796.143161</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1743779365450555</v>
+        <v>0.1464587292636922</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02353338225516359</v>
+        <v>0.01973327967789721</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3428706056.562397</v>
+        <v>4313807457.73548</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1235341761753311</v>
+        <v>0.1313062424948578</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03705304085027584</v>
+        <v>0.04268587487003884</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1377004188.903513</v>
+        <v>1674006136.029373</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1142337969401587</v>
+        <v>0.1118116084104841</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03678655525603557</v>
+        <v>0.03723794605884839</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5607586023.490991</v>
+        <v>4329559776.18523</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1019883743381353</v>
+        <v>0.08508539855467293</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03778333194720284</v>
+        <v>0.03208844098268578</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5079117954.104486</v>
+        <v>5037170527.774862</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1344922955525993</v>
+        <v>0.09429644269721973</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03088516227907032</v>
+        <v>0.02519509976555734</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4796565491.779416</v>
+        <v>4302046029.092749</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1451712931626523</v>
+        <v>0.1340789272161992</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01978716567069138</v>
+        <v>0.02555340067986867</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2369297050.344635</v>
+        <v>2106674749.641219</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1550334238762206</v>
+        <v>0.1364370405804763</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03178312486334334</v>
+        <v>0.03996808597033428</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2502575895.703345</v>
+        <v>1748319918.823841</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08221815174934313</v>
+        <v>0.07594537813056838</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05165752922766489</v>
+        <v>0.03376764798216209</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3046617946.210427</v>
+        <v>3134236145.736228</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1275505906326787</v>
+        <v>0.1702752155582281</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03621666655260112</v>
+        <v>0.03935887356940389</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1964518010.607199</v>
+        <v>2124390448.354664</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1159266632366563</v>
+        <v>0.1406741678909582</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0180374543511159</v>
+        <v>0.02230433900720378</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>975086475.8050611</v>
+        <v>1224779797.004849</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1715472993416761</v>
+        <v>0.1660169245049344</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04318101940626624</v>
+        <v>0.03927298049412088</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3051580505.673006</v>
+        <v>2723941196.017067</v>
       </c>
       <c r="F88" t="n">
-        <v>0.175146387591078</v>
+        <v>0.1190120234973305</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03554067028576699</v>
+        <v>0.0261285683508431</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3408472473.362523</v>
+        <v>2969942669.570156</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1391435919444972</v>
+        <v>0.1491327997838556</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0398387980933033</v>
+        <v>0.02535477864395645</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1359181032.310554</v>
+        <v>1979345210.080331</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09495134457104654</v>
+        <v>0.09408364886192065</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05369334346223686</v>
+        <v>0.04003697855590582</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1713730907.613095</v>
+        <v>1371873189.045528</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1612114809437359</v>
+        <v>0.1812925311217816</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05205509238251248</v>
+        <v>0.04774829839781491</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2503797225.473639</v>
+        <v>2649688580.534345</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1093655486283865</v>
+        <v>0.08463225767218165</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04744077137004884</v>
+        <v>0.03407637894274634</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3664578791.865704</v>
+        <v>3404878934.763684</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1206589639793624</v>
+        <v>0.1154114813492442</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05297158862096409</v>
+        <v>0.03389036803179259</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2339123128.862121</v>
+        <v>2009587080.498348</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1390545376535872</v>
+        <v>0.1374186097163857</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04156576048030371</v>
+        <v>0.03683077000887486</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3230640917.016359</v>
+        <v>2039210119.27566</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1319594136713853</v>
+        <v>0.1071257550274974</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04867853945637925</v>
+        <v>0.03709628592077226</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2407562542.336173</v>
+        <v>2088855427.658799</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09989905640997257</v>
+        <v>0.1069853603715855</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03676408441762814</v>
+        <v>0.03589949931630527</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4193029009.307523</v>
+        <v>4013586836.870275</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1423102914586392</v>
+        <v>0.1400379701208674</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02371729619438383</v>
+        <v>0.02144014891680315</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2988229463.101673</v>
+        <v>3732604875.752679</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1107201111661395</v>
+        <v>0.08083774117734858</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02597481824962803</v>
+        <v>0.03194009176086822</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2456623105.96714</v>
+        <v>2491289054.050219</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1042471093017875</v>
+        <v>0.1224294483341658</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02362280204961527</v>
+        <v>0.03361928801162055</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3216371776.850738</v>
+        <v>3411715256.554233</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1555695713839577</v>
+        <v>0.1751220194764934</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01998020138737244</v>
+        <v>0.0237708165399976</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3272038731.095949</v>
+        <v>2639304079.581861</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2158599349941387</v>
+        <v>0.1578476063154305</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04024665346909659</v>
+        <v>0.0577005453707293</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_417.xlsx
+++ b/output/fit_clients/fit_round_417.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2211110880.109479</v>
+        <v>1794130077.786076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0942654678253574</v>
+        <v>0.1054725025230211</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02963775226007576</v>
+        <v>0.03929383736024769</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2288144448.422987</v>
+        <v>1650772317.005579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1792276050497093</v>
+        <v>0.1803290728631161</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03659572380081124</v>
+        <v>0.03798478091882072</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4953681886.317354</v>
+        <v>4412109907.801672</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1480218965957621</v>
+        <v>0.1447599755097144</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0249359618922202</v>
+        <v>0.02317389218363944</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>211</v>
+      </c>
+      <c r="J4" t="n">
+        <v>417</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44.66467667494063</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3513303147.838851</v>
+        <v>2888192399.751191</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08491814527175934</v>
+        <v>0.1020831324160984</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05059636547325636</v>
+        <v>0.03930933964380763</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>173</v>
+      </c>
+      <c r="J5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2073607419.922787</v>
+        <v>1939841178.277551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1117138370451171</v>
+        <v>0.1491130237383254</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04579486239556421</v>
+        <v>0.05484602855565688</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2642054254.010546</v>
+        <v>2741743083.416748</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06396453625759206</v>
+        <v>0.07013466928253112</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0451823425957355</v>
+        <v>0.04855455323497323</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2447432095.79904</v>
+        <v>2439764455.745391</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1761049501332225</v>
+        <v>0.1363002528785879</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02913664978234749</v>
+        <v>0.02579661840011391</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2235068556.866935</v>
+        <v>1876089045.577821</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1293527576291571</v>
+        <v>0.1631042733786325</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0338738248537902</v>
+        <v>0.02856426081076359</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4628193771.867324</v>
+        <v>4382727560.283345</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2033885530012532</v>
+        <v>0.1587655898626451</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04365485481310161</v>
+        <v>0.0406029846446602</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>333</v>
+      </c>
+      <c r="J10" t="n">
+        <v>417</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4083199941.317834</v>
+        <v>4064547661.971421</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1662452376421384</v>
+        <v>0.1386266152149502</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03091840996564614</v>
+        <v>0.04848986213913818</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>417</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2402605010.619069</v>
+        <v>2014106373.994533</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1360364364008569</v>
+        <v>0.1360619827742132</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0343108022463812</v>
+        <v>0.03530252498476209</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3564254790.779034</v>
+        <v>4251106528.405208</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09281663742292458</v>
+        <v>0.06792297772964076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02665575369167221</v>
+        <v>0.0258321335456459</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>217</v>
+      </c>
+      <c r="J13" t="n">
+        <v>417</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2562564115.524251</v>
+        <v>3761559011.607733</v>
       </c>
       <c r="F14" t="n">
-        <v>0.118092255676821</v>
+        <v>0.1357336088420829</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0385475410388767</v>
+        <v>0.04169449723566712</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>85</v>
+      </c>
+      <c r="J14" t="n">
+        <v>417</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1305800778.070065</v>
+        <v>1225798107.529807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1080280401980264</v>
+        <v>0.06835930571526794</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0322924332111336</v>
+        <v>0.03340553074105831</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2675423321.738127</v>
+        <v>2344486239.573799</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07824608049421557</v>
+        <v>0.09000646652667772</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03978768913304119</v>
+        <v>0.03722429321092849</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3301038042.573606</v>
+        <v>4164420311.68783</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1694575155739037</v>
+        <v>0.1291374094455932</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03843532471331864</v>
+        <v>0.04244202576890008</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>202</v>
+      </c>
+      <c r="J17" t="n">
+        <v>416</v>
+      </c>
+      <c r="K17" t="n">
+        <v>42.76365916230674</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3852315679.890578</v>
+        <v>2602668762.193198</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1383117530325332</v>
+        <v>0.1745747027732952</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03061035977367654</v>
+        <v>0.02190054285542259</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>108</v>
+      </c>
+      <c r="J18" t="n">
+        <v>416</v>
+      </c>
+      <c r="K18" t="n">
+        <v>26.50158677090525</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1355901085.003237</v>
+        <v>832419647.3285301</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1345160101841321</v>
+        <v>0.1409354985457437</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02743579762475682</v>
+        <v>0.01687310635286414</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1764687441.454967</v>
+        <v>2446993086.630181</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1460557991404453</v>
+        <v>0.1321581833463725</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02326776043210447</v>
+        <v>0.02182048955258309</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1786969304.947479</v>
+        <v>2083817773.823556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08025555733982623</v>
+        <v>0.1016347637235356</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03343857377054625</v>
+        <v>0.0329202475240261</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2609598197.398706</v>
+        <v>3264185510.448432</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1276350724086029</v>
+        <v>0.09863829850777878</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05185543454472884</v>
+        <v>0.04514246022989468</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>117</v>
+      </c>
+      <c r="J22" t="n">
+        <v>416</v>
+      </c>
+      <c r="K22" t="n">
+        <v>41.04061981824129</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>992112536.6805596</v>
+        <v>1170360261.310774</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1633668023490777</v>
+        <v>0.1156897953546318</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03858486871950944</v>
+        <v>0.03439470713925593</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3357509128.320048</v>
+        <v>3755852779.692441</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1252897307120756</v>
+        <v>0.1121156752458899</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02938675346335415</v>
+        <v>0.03501507335596007</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>131</v>
+      </c>
+      <c r="J24" t="n">
+        <v>415</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1454367333.44529</v>
+        <v>1302041080.854911</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08763464817873365</v>
+        <v>0.12032314517141</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02809664799594868</v>
+        <v>0.02203902462968228</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1396703630.856397</v>
+        <v>1355170978.548009</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0809568524752826</v>
+        <v>0.1218477470144375</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02954170328539518</v>
+        <v>0.03897610025911761</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4373428332.710619</v>
+        <v>4014907689.06882</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1367626934679261</v>
+        <v>0.1239045020981255</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0265857753066488</v>
+        <v>0.02472837497617375</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>177</v>
+      </c>
+      <c r="J27" t="n">
+        <v>417</v>
+      </c>
+      <c r="K27" t="n">
+        <v>47.26894015687498</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3521984082.649656</v>
+        <v>2983261868.765118</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1428431410796107</v>
+        <v>0.1084013251233184</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03763151669848599</v>
+        <v>0.03710722972754062</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>103</v>
+      </c>
+      <c r="J28" t="n">
+        <v>415</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3845396454.718536</v>
+        <v>4256996136.532437</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1115973438856109</v>
+        <v>0.1335719588554392</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03261450021665532</v>
+        <v>0.03720131500695271</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>348</v>
+      </c>
+      <c r="J29" t="n">
+        <v>417</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2129221679.1147</v>
+        <v>2215989000.696481</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09786513420087982</v>
+        <v>0.1027614465086196</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02846342211617148</v>
+        <v>0.02976525821848426</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>908000097.2734896</v>
+        <v>1213116412.581455</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08053437107319662</v>
+        <v>0.06839472144724199</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03933090041277338</v>
+        <v>0.0513476281377166</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1150058228.536017</v>
+        <v>1469072638.698471</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1085411842351227</v>
+        <v>0.09474992641632476</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02709532748811213</v>
+        <v>0.03527008727148525</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2905635596.011684</v>
+        <v>2371150321.066756</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1279405034207339</v>
+        <v>0.2052542869617226</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05108453132831004</v>
+        <v>0.05978147730668928</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1173319675.481338</v>
+        <v>1067186268.513429</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09307133003582826</v>
+        <v>0.09046188869572046</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02143097655954989</v>
+        <v>0.02442059921460316</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1200899211.872671</v>
+        <v>1211661145.735509</v>
       </c>
       <c r="F35" t="n">
-        <v>0.117335461164356</v>
+        <v>0.1156657564412274</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04093666401661077</v>
+        <v>0.03709798947152382</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2781434173.660913</v>
+        <v>2389463778.989178</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1104313397588579</v>
+        <v>0.1601624007474317</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02675377392114737</v>
+        <v>0.02663184696373209</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1869864574.291966</v>
+        <v>2525448815.163145</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07929654330695168</v>
+        <v>0.09040288717291636</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02854391900706943</v>
+        <v>0.03592522927630171</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1646242360.705325</v>
+        <v>1421062660.924522</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09763824204963596</v>
+        <v>0.09424029225290649</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02537013745926893</v>
+        <v>0.0373492805279929</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1858859342.136358</v>
+        <v>2006176112.753147</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1600238488282266</v>
+        <v>0.1414582536090553</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02073763765043336</v>
+        <v>0.02769205802302989</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1379137554.158638</v>
+        <v>1321848732.778116</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1193735642539887</v>
+        <v>0.1608604057501485</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03713709560013546</v>
+        <v>0.05939196284770954</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2791028025.607211</v>
+        <v>2262385096.345907</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1587280747338736</v>
+        <v>0.1561209165483749</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04409039334980103</v>
+        <v>0.03088971377580193</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3942964327.515162</v>
+        <v>2960093414.819235</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1030993346275004</v>
+        <v>0.09912429042678622</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03441171890330993</v>
+        <v>0.03226394453110283</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>179</v>
+      </c>
+      <c r="J42" t="n">
+        <v>416</v>
+      </c>
+      <c r="K42" t="n">
+        <v>33.27556794944694</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2722214033.903961</v>
+        <v>2919700864.343577</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1853406234642953</v>
+        <v>0.1240634635686242</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01625182426860277</v>
+        <v>0.01751460165905698</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1748526462.473712</v>
+        <v>1524316924.08613</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09871593251050086</v>
+        <v>0.08725847600919807</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02794703324807617</v>
+        <v>0.0366925946060128</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2066924104.49367</v>
+        <v>1826827785.305347</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1917922144256242</v>
+        <v>0.1335269376083069</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04096022522689542</v>
+        <v>0.0470393487904858</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5422814509.397879</v>
+        <v>3858444434.563871</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1596742899376923</v>
+        <v>0.1713555341501652</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05039190271425718</v>
+        <v>0.04974849217504328</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>250</v>
+      </c>
+      <c r="J46" t="n">
+        <v>416</v>
+      </c>
+      <c r="K46" t="n">
+        <v>43.35097888719488</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3689743738.79008</v>
+        <v>4321588536.891174</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1278487128961761</v>
+        <v>0.1587014565538006</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04607821394019553</v>
+        <v>0.04091614680515013</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>186</v>
+      </c>
+      <c r="J47" t="n">
+        <v>417</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4338494904.309606</v>
+        <v>3466995056.490622</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08834129610618427</v>
+        <v>0.09279882268082522</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02658088133271801</v>
+        <v>0.03648093134000869</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>214</v>
+      </c>
+      <c r="J48" t="n">
+        <v>415</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1276798147.507267</v>
+        <v>1283305368.977105</v>
       </c>
       <c r="F49" t="n">
-        <v>0.177096751841592</v>
+        <v>0.1485288692432379</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03431777290341367</v>
+        <v>0.03380494076930489</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2647167496.21591</v>
+        <v>3889340664.206359</v>
       </c>
       <c r="F50" t="n">
-        <v>0.151687661371035</v>
+        <v>0.1649418043871004</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03724855649429116</v>
+        <v>0.04302758725678675</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>143</v>
+      </c>
+      <c r="J50" t="n">
+        <v>417</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1077395775.095833</v>
+        <v>1485556962.854158</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1198257145245618</v>
+        <v>0.1639255476485241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04235738361090592</v>
+        <v>0.04740037229869248</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3189240771.77437</v>
+        <v>3577659365.905333</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1062655322352197</v>
+        <v>0.1166950966562078</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05861864091124574</v>
+        <v>0.04240603587065354</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>241</v>
+      </c>
+      <c r="J52" t="n">
+        <v>416</v>
+      </c>
+      <c r="K52" t="n">
+        <v>37.4705562526924</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3033441034.238372</v>
+        <v>2953346718.664715</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2003927643672711</v>
+        <v>0.1499451498042487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02968162359358484</v>
+        <v>0.0330101901675837</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>60</v>
+      </c>
+      <c r="J53" t="n">
+        <v>414</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3971842678.470589</v>
+        <v>4940591006.924158</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1237261978982595</v>
+        <v>0.1574705267284386</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03794357184862117</v>
+        <v>0.05247645680161287</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>222</v>
+      </c>
+      <c r="J54" t="n">
+        <v>417</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4230484779.661443</v>
+        <v>3751605100.230392</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2205500299749407</v>
+        <v>0.21449232540553</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02603557944345173</v>
+        <v>0.01998291823460524</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>206</v>
+      </c>
+      <c r="J55" t="n">
+        <v>416</v>
+      </c>
+      <c r="K55" t="n">
+        <v>42.95223127382354</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1756875505.193204</v>
+        <v>1784458079.748432</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1280107537856435</v>
+        <v>0.1410893916770773</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04080395160281162</v>
+        <v>0.05393346049431962</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3552715645.189682</v>
+        <v>4164725518.399891</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1649485664604086</v>
+        <v>0.1652259185145319</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02301452695670306</v>
+        <v>0.02573701626012861</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>180</v>
+      </c>
+      <c r="J57" t="n">
+        <v>417</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1587233748.76893</v>
+        <v>1610050480.26968</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1529897063233605</v>
+        <v>0.1379028174839231</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02623898996657736</v>
+        <v>0.03697450723861009</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3843302494.437919</v>
+        <v>3276932903.983158</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1279177655677807</v>
+        <v>0.1000482460443496</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0461812334280339</v>
+        <v>0.04971481908463045</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>204</v>
+      </c>
+      <c r="J59" t="n">
+        <v>416</v>
+      </c>
+      <c r="K59" t="n">
+        <v>33.59356929014179</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2551,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2497393218.572266</v>
+        <v>3169222513.907245</v>
       </c>
       <c r="F60" t="n">
-        <v>0.199261127990051</v>
+        <v>0.1377507340452061</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02857280582641812</v>
+        <v>0.02824411135280744</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>79</v>
+      </c>
+      <c r="J60" t="n">
+        <v>417</v>
+      </c>
+      <c r="K60" t="n">
+        <v>48.0400054770485</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2895062831.409918</v>
+        <v>2453419842.9278</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1558314708322881</v>
+        <v>0.145894609588685</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03286258875532606</v>
+        <v>0.02818558543932973</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1850206003.304534</v>
+        <v>1771134192.383786</v>
       </c>
       <c r="F62" t="n">
-        <v>0.154427520565525</v>
+        <v>0.1464628551715184</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04445405107180121</v>
+        <v>0.04147074361567357</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5114078302.364638</v>
+        <v>5433786753.647413</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07894181670084374</v>
+        <v>0.09968805982852232</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03785742685704069</v>
+        <v>0.03440040668752116</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>208</v>
+      </c>
+      <c r="J63" t="n">
+        <v>416</v>
+      </c>
+      <c r="K63" t="n">
+        <v>42.34084725015131</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5538582804.55779</v>
+        <v>3789355102.344875</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1624879837151216</v>
+        <v>0.1915615455915659</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02255688710877157</v>
+        <v>0.03003454071337021</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>209</v>
+      </c>
+      <c r="J64" t="n">
+        <v>416</v>
+      </c>
+      <c r="K64" t="n">
+        <v>41.82646429712937</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5078287189.405387</v>
+        <v>3809909017.906594</v>
       </c>
       <c r="F65" t="n">
-        <v>0.111944914341624</v>
+        <v>0.1598884645863617</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02419175302469436</v>
+        <v>0.0317728812306932</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>306</v>
+      </c>
+      <c r="J65" t="n">
+        <v>416</v>
+      </c>
+      <c r="K65" t="n">
+        <v>43.03176511385047</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5174875432.948208</v>
+        <v>4726058098.611261</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1541891959620317</v>
+        <v>0.152995338445382</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04127963648238894</v>
+        <v>0.04058837814251095</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>205</v>
+      </c>
+      <c r="J66" t="n">
+        <v>417</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3158053276.374438</v>
+        <v>2546824316.922535</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09704417067087014</v>
+        <v>0.1023434826665338</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0422397614637802</v>
+        <v>0.04049552135987186</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4468983849.248143</v>
+        <v>5133521136.399014</v>
       </c>
       <c r="F68" t="n">
-        <v>0.131815273759557</v>
+        <v>0.1102222251875301</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04667217186935793</v>
+        <v>0.04660998034408481</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>227</v>
+      </c>
+      <c r="J68" t="n">
+        <v>417</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2265477116.280857</v>
+        <v>2100546430.961963</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1515853444209465</v>
+        <v>0.1531011495208051</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03647657207631232</v>
+        <v>0.05861886026121581</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2391499879.831398</v>
+        <v>3508721732.302465</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06745631016912723</v>
+        <v>0.08057532266952627</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03656464387641794</v>
+        <v>0.04484030572862837</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3880970702.924857</v>
+        <v>3890213402.274652</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1477754438631594</v>
+        <v>0.1383159449319652</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02682084582865756</v>
+        <v>0.02856394915711453</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>292</v>
+      </c>
+      <c r="J71" t="n">
+        <v>417</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1987272962.749699</v>
+        <v>1531495786.38469</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07050270618387285</v>
+        <v>0.08990187690128844</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0393978871519475</v>
+        <v>0.03730794530652772</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3043380432.62094</v>
+        <v>2760886825.752852</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1092208038335991</v>
+        <v>0.07012848530887229</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04961593196139853</v>
+        <v>0.03245960322192198</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3949901909.504902</v>
+        <v>2930036112.497942</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1635325146248645</v>
+        <v>0.1203657531208742</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02234948592035564</v>
+        <v>0.02876386928645075</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>118</v>
+      </c>
+      <c r="J74" t="n">
+        <v>416</v>
+      </c>
+      <c r="K74" t="n">
+        <v>35.65410866870992</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1938389804.0693</v>
+        <v>1652088890.14245</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1066158252446515</v>
+        <v>0.1100601319582962</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03343575242129711</v>
+        <v>0.0274161489381711</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5136673856.161815</v>
+        <v>5272181588.294871</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0843079483597825</v>
+        <v>0.07661362314518143</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03219219684469584</v>
+        <v>0.02478152831738063</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>198</v>
+      </c>
+      <c r="J76" t="n">
+        <v>417</v>
+      </c>
+      <c r="K76" t="n">
+        <v>43.85481026696814</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1506227796.143161</v>
+        <v>2138283778.900066</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1464587292636922</v>
+        <v>0.1275532831053917</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01973327967789721</v>
+        <v>0.03118916480420202</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4313807457.73548</v>
+        <v>4711006004.351462</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1313062424948578</v>
+        <v>0.0987632064518726</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04268587487003884</v>
+        <v>0.04710529392374371</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>209</v>
+      </c>
+      <c r="J78" t="n">
+        <v>416</v>
+      </c>
+      <c r="K78" t="n">
+        <v>42.06891016344845</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1674006136.029373</v>
+        <v>1708078203.200965</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1118116084104841</v>
+        <v>0.1518094112755814</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03723794605884839</v>
+        <v>0.03670418499504844</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4329559776.18523</v>
+        <v>5008193215.968315</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08508539855467293</v>
+        <v>0.09808221373180633</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03208844098268578</v>
+        <v>0.03385885129186425</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>203</v>
+      </c>
+      <c r="J80" t="n">
+        <v>417</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5037170527.774862</v>
+        <v>4736650895.76931</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09429644269721973</v>
+        <v>0.1141374858627003</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02519509976555734</v>
+        <v>0.0262353448243548</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>193</v>
+      </c>
+      <c r="J81" t="n">
+        <v>417</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4302046029.092749</v>
+        <v>5537246533.738593</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1340789272161992</v>
+        <v>0.13086724412319</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02555340067986867</v>
+        <v>0.01978788529325989</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>283</v>
+      </c>
+      <c r="J82" t="n">
+        <v>417</v>
+      </c>
+      <c r="K82" t="n">
+        <v>44.71640687430386</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2106674749.641219</v>
+        <v>2011961046.102485</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1364370405804763</v>
+        <v>0.1000408866677777</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03996808597033428</v>
+        <v>0.02850519524388484</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1748319918.823841</v>
+        <v>2320958372.655185</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07594537813056838</v>
+        <v>0.1069325778255012</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03376764798216209</v>
+        <v>0.04467519376415656</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3134236145.736228</v>
+        <v>3534536554.454978</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1702752155582281</v>
+        <v>0.1503741364999357</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03935887356940389</v>
+        <v>0.03502287873243155</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2124390448.354664</v>
+        <v>2017222860.849352</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1406741678909582</v>
+        <v>0.1696138419256565</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02230433900720378</v>
+        <v>0.01954371053043614</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1224779797.004849</v>
+        <v>940435282.7455361</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1660169245049344</v>
+        <v>0.1729745028134602</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03927298049412088</v>
+        <v>0.03383196431159263</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2723941196.017067</v>
+        <v>2881192411.053746</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1190120234973305</v>
+        <v>0.1683890994969642</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0261285683508431</v>
+        <v>0.03357807783605712</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2969942669.570156</v>
+        <v>2721497385.166435</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1491327997838556</v>
+        <v>0.1009809344063831</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02535477864395645</v>
+        <v>0.0254545352441586</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1979345210.080331</v>
+        <v>1803730324.050276</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09408364886192065</v>
+        <v>0.09457277281531586</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04003697855590582</v>
+        <v>0.04840941937989986</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1371873189.045528</v>
+        <v>1797018287.007733</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1812925311217816</v>
+        <v>0.1931509694513062</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04774829839781491</v>
+        <v>0.04283431031396107</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2649688580.534345</v>
+        <v>2784571585.156273</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08463225767218165</v>
+        <v>0.1055044907465999</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03407637894274634</v>
+        <v>0.03139605184697991</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3404878934.763684</v>
+        <v>3827826747.899454</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1154114813492442</v>
+        <v>0.1307974942560701</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03389036803179259</v>
+        <v>0.04941774065381606</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>199</v>
+      </c>
+      <c r="J93" t="n">
+        <v>417</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2009587080.498348</v>
+        <v>2196668397.365763</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1374186097163857</v>
+        <v>0.1331718654459272</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03683077000887486</v>
+        <v>0.03458930518027105</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2039210119.27566</v>
+        <v>2852624051.826116</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1071257550274974</v>
+        <v>0.1266796560615113</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03709628592077226</v>
+        <v>0.03583080995652989</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2088855427.658799</v>
+        <v>1665460893.481171</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1069853603715855</v>
+        <v>0.08614367330180107</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03589949931630527</v>
+        <v>0.04568402105335682</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4013586836.870275</v>
+        <v>3790466958.869028</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1400379701208674</v>
+        <v>0.1097457532728004</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02144014891680315</v>
+        <v>0.01978408554450365</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>218</v>
+      </c>
+      <c r="J97" t="n">
+        <v>416</v>
+      </c>
+      <c r="K97" t="n">
+        <v>41.08735481162551</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3732604875.752679</v>
+        <v>3359138585.09314</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08083774117734858</v>
+        <v>0.08429856156744601</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03194009176086822</v>
+        <v>0.02513473573913219</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="n">
+        <v>42.27180388291447</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2491289054.050219</v>
+        <v>2801693704.191878</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1224294483341658</v>
+        <v>0.09964503448722319</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03361928801162055</v>
+        <v>0.03532984899712852</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3411715256.554233</v>
+        <v>3261432921.685671</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1751220194764934</v>
+        <v>0.1123135417157139</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0237708165399976</v>
+        <v>0.01950274003000952</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>194</v>
+      </c>
+      <c r="J100" t="n">
+        <v>415</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2639304079.581861</v>
+        <v>3504711074.102643</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1578476063154305</v>
+        <v>0.185450964138278</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0577005453707293</v>
+        <v>0.04794722103707068</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
